--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件驳回件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件驳回件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,917 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>298</v>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>560</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3162</v>
+      </c>
+      <c r="F2" t="n">
+        <v>346</v>
+      </c>
+      <c r="G2" t="n">
+        <v>51</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2791</v>
+      </c>
+      <c r="J2" t="n">
+        <v>256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>42</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26</v>
+      </c>
       <c r="M2" t="n">
-        <v>11146</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>10014</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>236</v>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>451</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2802</v>
+      </c>
+      <c r="F3" t="n">
+        <v>329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>61</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2165</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2295</v>
+      </c>
+      <c r="J3" t="n">
+        <v>268</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25</v>
+      </c>
       <c r="M3" t="n">
-        <v>11516</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>8849</v>
+      </c>
+      <c r="N3" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>796</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D4" t="n">
-        <v>1001</v>
+        <v>365</v>
       </c>
       <c r="E4" t="n">
-        <v>7024</v>
+        <v>3581</v>
       </c>
       <c r="F4" t="n">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="G4" t="n">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>1567</v>
+        <v>1811</v>
       </c>
       <c r="I4" t="n">
-        <v>1389</v>
+        <v>1671</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="M4" t="n">
-        <v>12938</v>
+        <v>8544</v>
       </c>
       <c r="N4" t="n">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>241</v>
+      </c>
       <c r="C5" t="n">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>1007</v>
+        <v>395</v>
       </c>
       <c r="E5" t="n">
-        <v>3185</v>
+        <v>3494</v>
       </c>
       <c r="F5" t="n">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>2006</v>
+        <v>1755</v>
       </c>
       <c r="I5" t="n">
-        <v>2196</v>
+        <v>1905</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="L5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M5" t="n">
-        <v>9400</v>
+        <v>8639</v>
       </c>
       <c r="N5" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493</v>
+        <v>287</v>
       </c>
       <c r="C6" t="n">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>1206</v>
+        <v>858</v>
       </c>
       <c r="E6" t="n">
-        <v>3626</v>
+        <v>4833</v>
       </c>
       <c r="F6" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>1079</v>
+        <v>2495</v>
       </c>
       <c r="I6" t="n">
-        <v>2331</v>
+        <v>2775</v>
       </c>
       <c r="J6" t="n">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="K6" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L6" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M6" t="n">
-        <v>10109</v>
+        <v>12353</v>
       </c>
       <c r="N6" t="n">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>906</v>
+        <v>1022</v>
       </c>
       <c r="C7" t="n">
-        <v>777</v>
+        <v>392</v>
       </c>
       <c r="D7" t="n">
-        <v>1775</v>
+        <v>3103</v>
       </c>
       <c r="E7" t="n">
-        <v>6505</v>
+        <v>16179</v>
       </c>
       <c r="F7" t="n">
-        <v>1587</v>
+        <v>1362</v>
       </c>
       <c r="G7" t="n">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="H7" t="n">
-        <v>3404</v>
+        <v>6168</v>
       </c>
       <c r="I7" t="n">
-        <v>4598</v>
+        <v>6979</v>
       </c>
       <c r="J7" t="n">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="K7" t="n">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="L7" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>20698</v>
+        <v>36172</v>
       </c>
       <c r="N7" t="n">
-        <v>217</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>410</v>
+        <v>1383</v>
       </c>
       <c r="C8" t="n">
-        <v>153</v>
+        <v>440</v>
       </c>
       <c r="D8" t="n">
-        <v>743</v>
+        <v>3331</v>
       </c>
       <c r="E8" t="n">
-        <v>4509</v>
+        <v>23967</v>
       </c>
       <c r="F8" t="n">
-        <v>580</v>
+        <v>1549</v>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="H8" t="n">
-        <v>2271</v>
+        <v>7582</v>
       </c>
       <c r="I8" t="n">
-        <v>2202</v>
+        <v>10509</v>
       </c>
       <c r="J8" t="n">
-        <v>258</v>
+        <v>861</v>
       </c>
       <c r="K8" t="n">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="L8" t="n">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M8" t="n">
-        <v>11562</v>
+        <v>50387</v>
       </c>
       <c r="N8" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246</v>
+        <v>2225</v>
       </c>
       <c r="C9" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>692</v>
+        <v>3058</v>
       </c>
       <c r="E9" t="n">
-        <v>2303</v>
+        <v>25977</v>
       </c>
       <c r="F9" t="n">
-        <v>474</v>
+        <v>1442</v>
       </c>
       <c r="G9" t="n">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>2337</v>
+        <v>7553</v>
       </c>
       <c r="I9" t="n">
-        <v>2450</v>
+        <v>9900</v>
       </c>
       <c r="J9" t="n">
-        <v>286</v>
+        <v>872</v>
       </c>
       <c r="K9" t="n">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="L9" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>9198</v>
+        <v>53512</v>
       </c>
       <c r="N9" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320</v>
+        <v>2814</v>
       </c>
       <c r="C10" t="n">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="D10" t="n">
-        <v>559</v>
+        <v>2927</v>
       </c>
       <c r="E10" t="n">
-        <v>2231</v>
+        <v>33425</v>
       </c>
       <c r="F10" t="n">
-        <v>506</v>
+        <v>1434</v>
       </c>
       <c r="G10" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="H10" t="n">
-        <v>1918</v>
+        <v>8386</v>
       </c>
       <c r="I10" t="n">
-        <v>2883</v>
+        <v>10098</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>1190</v>
       </c>
       <c r="K10" t="n">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="L10" t="n">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="M10" t="n">
-        <v>9086</v>
+        <v>61186</v>
       </c>
       <c r="N10" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362</v>
+        <v>3832</v>
       </c>
       <c r="C11" t="n">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="D11" t="n">
-        <v>511</v>
+        <v>3492</v>
       </c>
       <c r="E11" t="n">
-        <v>3375</v>
+        <v>30776</v>
       </c>
       <c r="F11" t="n">
-        <v>778</v>
+        <v>1731</v>
       </c>
       <c r="G11" t="n">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="H11" t="n">
-        <v>2918</v>
+        <v>9463</v>
       </c>
       <c r="I11" t="n">
-        <v>2377</v>
+        <v>13104</v>
       </c>
       <c r="J11" t="n">
-        <v>202</v>
+        <v>1262</v>
       </c>
       <c r="K11" t="n">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="M11" t="n">
-        <v>11004</v>
+        <v>64693</v>
       </c>
       <c r="N11" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298</v>
+        <v>3791</v>
       </c>
       <c r="C12" t="n">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="D12" t="n">
-        <v>560</v>
+        <v>3304</v>
       </c>
       <c r="E12" t="n">
-        <v>3162</v>
+        <v>19600</v>
       </c>
       <c r="F12" t="n">
-        <v>346</v>
+        <v>1568</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="H12" t="n">
-        <v>2244</v>
+        <v>11039</v>
       </c>
       <c r="I12" t="n">
-        <v>2791</v>
+        <v>14767</v>
       </c>
       <c r="J12" t="n">
-        <v>256</v>
+        <v>1102</v>
       </c>
       <c r="K12" t="n">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="M12" t="n">
-        <v>10014</v>
+        <v>56239</v>
       </c>
       <c r="N12" t="n">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>236</v>
+        <v>5423</v>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>464</v>
       </c>
       <c r="D13" t="n">
-        <v>451</v>
+        <v>4880</v>
       </c>
       <c r="E13" t="n">
-        <v>2802</v>
+        <v>19302</v>
       </c>
       <c r="F13" t="n">
-        <v>329</v>
+        <v>2297</v>
       </c>
       <c r="G13" t="n">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="H13" t="n">
-        <v>2165</v>
+        <v>14095</v>
       </c>
       <c r="I13" t="n">
-        <v>2295</v>
+        <v>17497</v>
       </c>
       <c r="J13" t="n">
-        <v>268</v>
+        <v>1643</v>
       </c>
       <c r="K13" t="n">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="L13" t="n">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="M13" t="n">
-        <v>8849</v>
+        <v>66589</v>
       </c>
       <c r="N13" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>174</v>
-      </c>
-      <c r="C14" t="n">
-        <v>177</v>
-      </c>
-      <c r="D14" t="n">
-        <v>365</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3581</v>
-      </c>
-      <c r="F14" t="n">
-        <v>317</v>
-      </c>
-      <c r="G14" t="n">
-        <v>66</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1811</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1671</v>
-      </c>
-      <c r="J14" t="n">
-        <v>190</v>
-      </c>
-      <c r="K14" t="n">
-        <v>30</v>
-      </c>
-      <c r="L14" t="n">
-        <v>22</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8544</v>
-      </c>
-      <c r="N14" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>241</v>
-      </c>
-      <c r="C15" t="n">
-        <v>43</v>
-      </c>
-      <c r="D15" t="n">
-        <v>395</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3494</v>
-      </c>
-      <c r="F15" t="n">
-        <v>345</v>
-      </c>
-      <c r="G15" t="n">
-        <v>42</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1755</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1905</v>
-      </c>
-      <c r="J15" t="n">
-        <v>246</v>
-      </c>
-      <c r="K15" t="n">
-        <v>74</v>
-      </c>
-      <c r="L15" t="n">
-        <v>40</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8639</v>
-      </c>
-      <c r="N15" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>287</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99</v>
-      </c>
-      <c r="D16" t="n">
-        <v>858</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4833</v>
-      </c>
-      <c r="F16" t="n">
-        <v>524</v>
-      </c>
-      <c r="G16" t="n">
-        <v>44</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2495</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2775</v>
-      </c>
-      <c r="J16" t="n">
-        <v>337</v>
-      </c>
-      <c r="K16" t="n">
-        <v>40</v>
-      </c>
-      <c r="L16" t="n">
-        <v>34</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12353</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C17" t="n">
-        <v>392</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16179</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1362</v>
-      </c>
-      <c r="G17" t="n">
-        <v>126</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6168</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6979</v>
-      </c>
-      <c r="J17" t="n">
-        <v>558</v>
-      </c>
-      <c r="K17" t="n">
-        <v>127</v>
-      </c>
-      <c r="L17" t="n">
-        <v>85</v>
-      </c>
-      <c r="M17" t="n">
-        <v>36172</v>
-      </c>
-      <c r="N17" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1383</v>
-      </c>
-      <c r="C18" t="n">
-        <v>440</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3331</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23967</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1549</v>
-      </c>
-      <c r="G18" t="n">
-        <v>162</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7582</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10509</v>
-      </c>
-      <c r="J18" t="n">
-        <v>861</v>
-      </c>
-      <c r="K18" t="n">
-        <v>345</v>
-      </c>
-      <c r="L18" t="n">
-        <v>119</v>
-      </c>
-      <c r="M18" t="n">
-        <v>50387</v>
-      </c>
-      <c r="N18" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2225</v>
-      </c>
-      <c r="C19" t="n">
-        <v>208</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3058</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25977</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1442</v>
-      </c>
-      <c r="G19" t="n">
-        <v>128</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7553</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9900</v>
-      </c>
-      <c r="J19" t="n">
-        <v>872</v>
-      </c>
-      <c r="K19" t="n">
-        <v>131</v>
-      </c>
-      <c r="L19" t="n">
-        <v>107</v>
-      </c>
-      <c r="M19" t="n">
-        <v>53512</v>
-      </c>
-      <c r="N19" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2814</v>
-      </c>
-      <c r="C20" t="n">
-        <v>358</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2927</v>
-      </c>
-      <c r="E20" t="n">
-        <v>33425</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1434</v>
-      </c>
-      <c r="G20" t="n">
-        <v>138</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8386</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10098</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K20" t="n">
-        <v>183</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145</v>
-      </c>
-      <c r="M20" t="n">
-        <v>61186</v>
-      </c>
-      <c r="N20" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3832</v>
-      </c>
-      <c r="C21" t="n">
-        <v>281</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3492</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30776</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1731</v>
-      </c>
-      <c r="G21" t="n">
-        <v>186</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9463</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13104</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1262</v>
-      </c>
-      <c r="K21" t="n">
-        <v>320</v>
-      </c>
-      <c r="L21" t="n">
-        <v>166</v>
-      </c>
-      <c r="M21" t="n">
-        <v>64693</v>
-      </c>
-      <c r="N21" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3791</v>
-      </c>
-      <c r="C22" t="n">
-        <v>344</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3304</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19600</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1568</v>
-      </c>
-      <c r="G22" t="n">
-        <v>276</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11039</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14767</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K22" t="n">
-        <v>207</v>
-      </c>
-      <c r="L22" t="n">
-        <v>203</v>
-      </c>
-      <c r="M22" t="n">
-        <v>56239</v>
-      </c>
-      <c r="N22" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
